--- a/ATMP Sheets/GTMP/ARI-0001.xlsx
+++ b/ATMP Sheets/GTMP/ARI-0001.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="101">
   <si>
     <t>ATMP Cover Sheet</t>
   </si>
@@ -88,6 +88,9 @@
     <t>Phase 1 - Phase 2</t>
   </si>
   <si>
+    <t>Trial Status</t>
+  </si>
+  <si>
     <t>Regulatory Information</t>
   </si>
   <si>
@@ -130,9 +133,6 @@
     <t>Phase 2</t>
   </si>
   <si>
-    <t>Trial Status</t>
-  </si>
-  <si>
     <t>ongoing (23.09.2024)</t>
   </si>
   <si>
@@ -158,7 +158,7 @@
       <rPr>
         <rFont val="Calibri, Arial, Verdana, FreeSans, sans-serif"/>
         <color rgb="FF333333"/>
-        <sz val="14.0"/>
+        <sz val="13.0"/>
       </rPr>
       <t>UMCG</t>
     </r>
@@ -231,7 +231,7 @@
       <rPr>
         <rFont val="Calibri"/>
         <color rgb="FF333333"/>
-        <sz val="14.0"/>
+        <sz val="13.0"/>
       </rPr>
       <t>jdelgado@clinic.cat</t>
     </r>
@@ -320,12 +320,21 @@
   <si>
     <t>Expert statement: what was the biggest hurdle experienced?</t>
   </si>
+  <si>
+    <t>Status Information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status </t>
+  </si>
+  <si>
+    <t>in Progress</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -333,43 +342,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="17.0"/>
+      <sz val="13.0"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="13.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="17.0"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="15.0"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="15.0"/>
+      <sz val="13.0"/>
       <color rgb="FF222222"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="13.0"/>
       <color rgb="FF333333"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="14.0"/>
-      <color theme="1"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -405,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -418,44 +407,32 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1095,7 +1072,9 @@
       <c r="Z13" s="3"/>
     </row>
     <row r="14">
-      <c r="A14" s="3"/>
+      <c r="A14" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1123,13 +1102,11 @@
       <c r="Z14" s="3"/>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -1153,21 +1130,13 @@
       <c r="Z15" s="3"/>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>30</v>
-      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -1192,19 +1161,19 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>35</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -1229,20 +1198,20 @@
       <c r="Z17" s="3"/>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>38</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -1267,20 +1236,20 @@
       <c r="Z18" s="3"/>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>40</v>
+      <c r="D19" s="9" t="s">
+        <v>39</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>40</v>
+      <c r="E19" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -1305,18 +1274,20 @@
       <c r="Z19" s="3"/>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="s">
-        <v>41</v>
+      <c r="A20" s="3" t="s">
+        <v>25</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>42</v>
+      <c r="B20" s="10" t="s">
+        <v>40</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>43</v>
+      <c r="C20" s="9" t="s">
+        <v>40</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="11" t="s">
-        <v>44</v>
+      <c r="D20" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -1341,20 +1312,18 @@
       <c r="Z20" s="3"/>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="s">
-        <v>45</v>
+      <c r="A21" s="3" t="s">
+        <v>41</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>46</v>
+      <c r="B21" s="9" t="s">
+        <v>42</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>47</v>
+      <c r="C21" s="9" t="s">
+        <v>43</v>
       </c>
-      <c r="D21" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>46</v>
+      <c r="D21" s="9"/>
+      <c r="E21" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -1379,18 +1348,20 @@
       <c r="Z21" s="3"/>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="s">
-        <v>49</v>
+      <c r="A22" s="3" t="s">
+        <v>45</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>50</v>
+      <c r="B22" s="9" t="s">
+        <v>46</v>
       </c>
-      <c r="C22" s="12" t="s">
-        <v>50</v>
+      <c r="C22" s="9" t="s">
+        <v>47</v>
       </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="15" t="s">
-        <v>50</v>
+      <c r="D22" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -1415,18 +1386,18 @@
       <c r="Z22" s="3"/>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="s">
-        <v>51</v>
+      <c r="A23" s="3" t="s">
+        <v>49</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>52</v>
+      <c r="B23" s="10" t="s">
+        <v>50</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="12" t="s">
-        <v>53</v>
+      <c r="C23" s="9" t="s">
+        <v>50</v>
       </c>
-      <c r="E23" s="11" t="s">
-        <v>54</v>
+      <c r="D23" s="9"/>
+      <c r="E23" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -1451,13 +1422,19 @@
       <c r="Z23" s="3"/>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="s">
-        <v>55</v>
+      <c r="A24" s="3" t="s">
+        <v>51</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="3"/>
+      <c r="B24" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -1481,12 +1458,12 @@
       <c r="Z24" s="3"/>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="s">
-        <v>56</v>
+      <c r="A25" s="3" t="s">
+        <v>55</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -1511,16 +1488,12 @@
       <c r="Z25" s="3"/>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="s">
-        <v>57</v>
+      <c r="A26" s="3" t="s">
+        <v>56</v>
       </c>
-      <c r="B26" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="12" t="s">
-        <v>53</v>
-      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -1545,21 +1518,17 @@
       <c r="Z26" s="3"/>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="s">
-        <v>58</v>
+      <c r="A27" s="3" t="s">
+        <v>57</v>
       </c>
-      <c r="B27" s="12" t="s">
-        <v>59</v>
+      <c r="B27" s="9" t="s">
+        <v>52</v>
       </c>
-      <c r="C27" s="12" t="s">
-        <v>59</v>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9" t="s">
+        <v>53</v>
       </c>
-      <c r="D27" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>59</v>
-      </c>
+      <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -1583,20 +1552,20 @@
       <c r="Z27" s="3"/>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="s">
-        <v>60</v>
+      <c r="A28" s="3" t="s">
+        <v>58</v>
       </c>
-      <c r="B28" s="12" t="s">
-        <v>4</v>
+      <c r="B28" s="9" t="s">
+        <v>59</v>
       </c>
-      <c r="C28" s="12" t="s">
-        <v>4</v>
+      <c r="C28" s="9" t="s">
+        <v>59</v>
       </c>
-      <c r="D28" s="12" t="s">
-        <v>4</v>
+      <c r="D28" s="9" t="s">
+        <v>59</v>
       </c>
-      <c r="E28" s="11" t="s">
-        <v>4</v>
+      <c r="E28" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -1621,17 +1590,21 @@
       <c r="Z28" s="3"/>
     </row>
     <row r="29">
-      <c r="A29" s="11" t="s">
-        <v>61</v>
+      <c r="A29" s="3" t="s">
+        <v>60</v>
       </c>
-      <c r="B29" s="12" t="s">
-        <v>62</v>
+      <c r="B29" s="9" t="s">
+        <v>4</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>62</v>
+      <c r="C29" s="9" t="s">
+        <v>4</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="3"/>
+      <c r="D29" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -1655,12 +1628,16 @@
       <c r="Z29" s="3"/>
     </row>
     <row r="30">
-      <c r="A30" s="11" t="s">
-        <v>63</v>
+      <c r="A30" s="3" t="s">
+        <v>61</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
+      <c r="B30" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="9"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -1685,21 +1662,13 @@
       <c r="Z30" s="3"/>
     </row>
     <row r="31">
-      <c r="A31" s="15" t="s">
-        <v>64</v>
+      <c r="A31" s="3" t="s">
+        <v>63</v>
       </c>
-      <c r="B31" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>65</v>
-      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -1723,20 +1692,20 @@
       <c r="Z31" s="3"/>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="s">
-        <v>66</v>
+      <c r="A32" s="4" t="s">
+        <v>64</v>
       </c>
-      <c r="B32" s="12" t="s">
-        <v>67</v>
+      <c r="B32" s="9" t="s">
+        <v>65</v>
       </c>
-      <c r="C32" s="12" t="s">
-        <v>67</v>
+      <c r="C32" s="9" t="s">
+        <v>65</v>
       </c>
-      <c r="D32" s="12" t="s">
-        <v>67</v>
+      <c r="D32" s="9" t="s">
+        <v>65</v>
       </c>
-      <c r="E32" s="11" t="s">
-        <v>67</v>
+      <c r="E32" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -1761,20 +1730,20 @@
       <c r="Z32" s="3"/>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="s">
-        <v>68</v>
+      <c r="A33" s="3" t="s">
+        <v>66</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>69</v>
+      <c r="B33" s="9" t="s">
+        <v>67</v>
       </c>
-      <c r="C33" s="11" t="s">
-        <v>70</v>
+      <c r="C33" s="9" t="s">
+        <v>67</v>
       </c>
-      <c r="D33" s="11" t="s">
-        <v>71</v>
+      <c r="D33" s="9" t="s">
+        <v>67</v>
       </c>
-      <c r="E33" s="11" t="s">
-        <v>72</v>
+      <c r="E33" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -1799,13 +1768,21 @@
       <c r="Z33" s="3"/>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="s">
-        <v>73</v>
+      <c r="A34" s="3" t="s">
+        <v>68</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
+      <c r="B34" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
@@ -1829,9 +1806,11 @@
       <c r="Z34" s="3"/>
     </row>
     <row r="35">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
+      <c r="A35" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1857,13 +1836,11 @@
       <c r="Z35" s="3"/>
     </row>
     <row r="36">
-      <c r="A36" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -1887,15 +1864,13 @@
       <c r="Z36" s="3"/>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="s">
-        <v>75</v>
+      <c r="A37" s="1" t="s">
+        <v>74</v>
       </c>
-      <c r="B37" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -1920,9 +1895,11 @@
     </row>
     <row r="38">
       <c r="A38" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
-      <c r="B38" s="3"/>
+      <c r="B38" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -1950,7 +1927,7 @@
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1980,7 +1957,7 @@
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -2010,7 +1987,7 @@
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -2040,11 +2017,9 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
-      <c r="B42" s="16" t="s">
-        <v>65</v>
-      </c>
+      <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -2072,10 +2047,10 @@
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
-      <c r="B43" s="16" t="s">
-        <v>83</v>
+      <c r="B43" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -2104,9 +2079,11 @@
     </row>
     <row r="44">
       <c r="A44" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
-      <c r="B44" s="3"/>
+      <c r="B44" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -2134,7 +2111,7 @@
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -2164,7 +2141,7 @@
     </row>
     <row r="46">
       <c r="A46" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -2194,7 +2171,7 @@
     </row>
     <row r="47">
       <c r="A47" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -2224,7 +2201,7 @@
     </row>
     <row r="48">
       <c r="A48" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -2254,7 +2231,7 @@
     </row>
     <row r="49">
       <c r="A49" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -2284,7 +2261,7 @@
     </row>
     <row r="50">
       <c r="A50" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -2314,7 +2291,7 @@
     </row>
     <row r="51">
       <c r="A51" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -2344,7 +2321,7 @@
     </row>
     <row r="52">
       <c r="A52" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -2374,7 +2351,7 @@
     </row>
     <row r="53">
       <c r="A53" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -2404,7 +2381,7 @@
     </row>
     <row r="54">
       <c r="A54" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -2434,7 +2411,7 @@
     </row>
     <row r="55">
       <c r="A55" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -2464,7 +2441,7 @@
     </row>
     <row r="56">
       <c r="A56" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -2494,7 +2471,7 @@
     </row>
     <row r="57">
       <c r="A57" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -2523,7 +2500,9 @@
       <c r="Z57" s="3"/>
     </row>
     <row r="58">
-      <c r="A58" s="3"/>
+      <c r="A58" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -2579,11 +2558,13 @@
       <c r="Z59" s="3"/>
     </row>
     <row r="60">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
+      <c r="A60" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
@@ -2607,8 +2588,12 @@
       <c r="Z60" s="3"/>
     </row>
     <row r="61">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
+      <c r="A61" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>100</v>
+      </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -29010,6 +28995,34 @@
       <c r="Y1003" s="3"/>
       <c r="Z1003" s="3"/>
     </row>
+    <row r="1004">
+      <c r="A1004" s="3"/>
+      <c r="B1004" s="3"/>
+      <c r="C1004" s="3"/>
+      <c r="D1004" s="3"/>
+      <c r="E1004" s="3"/>
+      <c r="F1004" s="3"/>
+      <c r="G1004" s="3"/>
+      <c r="H1004" s="3"/>
+      <c r="I1004" s="3"/>
+      <c r="J1004" s="3"/>
+      <c r="K1004" s="3"/>
+      <c r="L1004" s="3"/>
+      <c r="M1004" s="3"/>
+      <c r="N1004" s="3"/>
+      <c r="O1004" s="3"/>
+      <c r="P1004" s="3"/>
+      <c r="Q1004" s="3"/>
+      <c r="R1004" s="3"/>
+      <c r="S1004" s="3"/>
+      <c r="T1004" s="3"/>
+      <c r="U1004" s="3"/>
+      <c r="V1004" s="3"/>
+      <c r="W1004" s="3"/>
+      <c r="X1004" s="3"/>
+      <c r="Y1004" s="3"/>
+      <c r="Z1004" s="3"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
